--- a/Code/Results/Cases/Case_1_136/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_136/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.172677418411324</v>
+        <v>6.156963590373884</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.468849611356697</v>
+        <v>4.009826208508815</v>
       </c>
       <c r="E2">
-        <v>13.75290475258767</v>
+        <v>13.0517797733534</v>
       </c>
       <c r="F2">
-        <v>15.84696521811756</v>
+        <v>19.88463245665361</v>
       </c>
       <c r="G2">
-        <v>19.13096675954865</v>
+        <v>21.30854860154199</v>
       </c>
       <c r="H2">
-        <v>7.513885820308946</v>
+        <v>12.30919095588805</v>
       </c>
       <c r="I2">
-        <v>11.67559556589714</v>
+        <v>18.63605908659317</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>14.51505236827383</v>
+        <v>10.41413169974733</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.0116373530335</v>
+        <v>12.99157281482328</v>
       </c>
       <c r="N2">
-        <v>11.60128672543363</v>
+        <v>17.43401136142691</v>
       </c>
       <c r="O2">
-        <v>12.09917546681296</v>
+        <v>17.74895436310258</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.749922528558396</v>
+        <v>6.039166275242645</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.264852898430727</v>
+        <v>3.928789575892174</v>
       </c>
       <c r="E3">
-        <v>12.99973672026426</v>
+        <v>12.90363368862676</v>
       </c>
       <c r="F3">
-        <v>15.33584519260305</v>
+        <v>19.85760895936672</v>
       </c>
       <c r="G3">
-        <v>18.38239691966262</v>
+        <v>21.23736206715618</v>
       </c>
       <c r="H3">
-        <v>7.510475882018332</v>
+        <v>12.34233629294067</v>
       </c>
       <c r="I3">
-        <v>11.93950356750243</v>
+        <v>18.72918760439642</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.77235614210716</v>
+        <v>10.07047087758454</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.01237683574014</v>
+        <v>12.74849099505098</v>
       </c>
       <c r="N3">
-        <v>11.74908786830013</v>
+        <v>17.48296354965862</v>
       </c>
       <c r="O3">
-        <v>11.93556108029119</v>
+        <v>17.78365092198452</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.475674830342815</v>
+        <v>5.966593858109411</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.133894956754596</v>
+        <v>3.8774927197596</v>
       </c>
       <c r="E4">
-        <v>12.52834715464138</v>
+        <v>12.81663994264883</v>
       </c>
       <c r="F4">
-        <v>15.02791121384057</v>
+        <v>19.84680445586836</v>
       </c>
       <c r="G4">
-        <v>17.92955826037737</v>
+        <v>21.20165799374684</v>
       </c>
       <c r="H4">
-        <v>7.513494536998616</v>
+        <v>12.36474362255763</v>
       </c>
       <c r="I4">
-        <v>12.10655298666433</v>
+        <v>18.78931955216837</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.29449302252134</v>
+        <v>9.851536957735306</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.3660471456993</v>
+        <v>12.59973984192309</v>
       </c>
       <c r="N4">
-        <v>11.84271107048007</v>
+        <v>17.51462047616478</v>
       </c>
       <c r="O4">
-        <v>11.84512875894377</v>
+        <v>17.80917967898423</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.360250223349888</v>
+        <v>5.936998827666138</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.079131929494406</v>
+        <v>3.856216597092263</v>
       </c>
       <c r="E5">
-        <v>12.33424571221959</v>
+        <v>12.78223047599266</v>
       </c>
       <c r="F5">
-        <v>14.90408463125121</v>
+        <v>19.84386088018305</v>
       </c>
       <c r="G5">
-        <v>17.74701490126916</v>
+        <v>21.18913253793329</v>
       </c>
       <c r="H5">
-        <v>7.515969136642673</v>
+        <v>12.3743914698523</v>
       </c>
       <c r="I5">
-        <v>12.17590064986201</v>
+        <v>18.81456767891138</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.0943794582268</v>
+        <v>9.760411047132564</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.09442276459225</v>
+        <v>12.53933344100266</v>
       </c>
       <c r="N5">
-        <v>11.88158993467738</v>
+        <v>17.52792425576964</v>
       </c>
       <c r="O5">
-        <v>11.81076485775525</v>
+        <v>17.82064303846904</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.340863462830651</v>
+        <v>5.932084510643879</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.069955443244662</v>
+        <v>3.852661685809312</v>
       </c>
       <c r="E6">
-        <v>12.30190210291809</v>
+        <v>12.77658090866513</v>
       </c>
       <c r="F6">
-        <v>14.88362873021348</v>
+        <v>19.84346032883706</v>
       </c>
       <c r="G6">
-        <v>17.71683262391894</v>
+        <v>21.18717522549473</v>
       </c>
       <c r="H6">
-        <v>7.516453998192627</v>
+        <v>12.37602468415592</v>
       </c>
       <c r="I6">
-        <v>12.18749311528525</v>
+        <v>18.81880509507711</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.06082956526734</v>
+        <v>9.745167018984068</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.04882247415646</v>
+        <v>12.52931823476352</v>
       </c>
       <c r="N6">
-        <v>11.88808975845956</v>
+        <v>17.53015772677356</v>
       </c>
       <c r="O6">
-        <v>11.80520788389246</v>
+        <v>17.822610482693</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.474132981959116</v>
+        <v>5.966194761057353</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.133162003920074</v>
+        <v>3.877207269270719</v>
       </c>
       <c r="E7">
-        <v>12.52573720510934</v>
+        <v>12.81617161357677</v>
       </c>
       <c r="F7">
-        <v>15.02623429260826</v>
+        <v>19.84675884484666</v>
       </c>
       <c r="G7">
-        <v>17.92708796392841</v>
+        <v>21.20148086230888</v>
       </c>
       <c r="H7">
-        <v>7.513522925976576</v>
+        <v>12.3648716452206</v>
       </c>
       <c r="I7">
-        <v>12.10748305775778</v>
+        <v>18.78965704279931</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.29181583952191</v>
+        <v>9.850315611872842</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.36241727184558</v>
+        <v>12.59892421358052</v>
       </c>
       <c r="N7">
-        <v>11.84323245638168</v>
+        <v>17.51479826124876</v>
       </c>
       <c r="O7">
-        <v>11.84465529192836</v>
+        <v>17.80932998836585</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.029968925862648</v>
+        <v>6.116421659657455</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.399715767315768</v>
+        <v>3.98221316277304</v>
       </c>
       <c r="E8">
-        <v>13.49519939769555</v>
+        <v>12.99990206630625</v>
       </c>
       <c r="F8">
-        <v>15.66961195011437</v>
+        <v>19.87411621117602</v>
       </c>
       <c r="G8">
-        <v>18.87161807072921</v>
+        <v>21.28234989248278</v>
       </c>
       <c r="H8">
-        <v>7.511624401654428</v>
+        <v>12.32019257561326</v>
       </c>
       <c r="I8">
-        <v>11.7655600391792</v>
+        <v>18.6675585381348</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.26356465806261</v>
+        <v>10.29733006489887</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.67389275879843</v>
+        <v>12.90770443192352</v>
       </c>
       <c r="N8">
-        <v>11.65165484795791</v>
+        <v>17.45055856268764</v>
       </c>
       <c r="O8">
-        <v>12.04066238527382</v>
+        <v>17.76003961028285</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8.002870238887349</v>
+        <v>6.407361835110563</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.875837829387216</v>
+        <v>4.175293786994875</v>
       </c>
       <c r="E9">
-        <v>15.3170171437476</v>
+        <v>13.38966581705638</v>
       </c>
       <c r="F9">
-        <v>16.97061813151112</v>
+        <v>19.97345445377833</v>
       </c>
       <c r="G9">
-        <v>20.7660739702275</v>
+        <v>21.50379677539466</v>
       </c>
       <c r="H9">
-        <v>7.55028212826349</v>
+        <v>12.24890339062063</v>
       </c>
       <c r="I9">
-        <v>11.1341412184246</v>
+        <v>18.45144826498498</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.99205907529229</v>
+        <v>11.10777989615539</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.98624626888113</v>
+        <v>13.5135565955057</v>
       </c>
       <c r="N9">
-        <v>11.2985800038186</v>
+        <v>17.33723626222366</v>
       </c>
       <c r="O9">
-        <v>12.50569328777859</v>
+        <v>17.69699140797045</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.645829912406366</v>
+        <v>6.616685792972475</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.195828913204596</v>
+        <v>4.308562193084458</v>
       </c>
       <c r="E10">
-        <v>16.67691203072706</v>
+        <v>13.69115148915974</v>
       </c>
       <c r="F10">
-        <v>17.94125270167872</v>
+        <v>20.0738853321676</v>
       </c>
       <c r="G10">
-        <v>22.16989821818248</v>
+        <v>21.70373188836988</v>
       </c>
       <c r="H10">
-        <v>7.60696805127459</v>
+        <v>12.20649734960409</v>
       </c>
       <c r="I10">
-        <v>10.69315590000698</v>
+        <v>18.3067674118731</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.15035794513004</v>
+        <v>11.65909153874004</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.52877739733266</v>
+        <v>13.95414308673544</v>
       </c>
       <c r="N10">
-        <v>11.05271957682234</v>
+        <v>17.26162878879986</v>
       </c>
       <c r="O10">
-        <v>12.89752782943913</v>
+        <v>17.67126115027506</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.922730016457034</v>
+        <v>6.710516914360356</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.334718716064756</v>
+        <v>4.367180480299936</v>
       </c>
       <c r="E11">
-        <v>17.33012794537467</v>
+        <v>13.83096058294531</v>
       </c>
       <c r="F11">
-        <v>18.38435996347691</v>
+        <v>20.12541728742267</v>
       </c>
       <c r="G11">
-        <v>22.80879376984285</v>
+        <v>21.80248015814496</v>
       </c>
       <c r="H11">
-        <v>7.639408018958188</v>
+        <v>12.18937381731668</v>
       </c>
       <c r="I11">
-        <v>10.49732362733695</v>
+        <v>18.24398271421697</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>17.65261506487371</v>
+        <v>11.89966030959876</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>20.19716299489065</v>
+        <v>14.15264627319414</v>
       </c>
       <c r="N11">
-        <v>10.94377058467407</v>
+        <v>17.2288810984485</v>
       </c>
       <c r="O11">
-        <v>13.08676780314922</v>
+        <v>17.66404185059977</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.025347304595572</v>
+        <v>6.745814572976845</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>5.386339983333301</v>
+        <v>4.389078260163137</v>
       </c>
       <c r="E12">
-        <v>17.57380359574544</v>
+        <v>13.88423202791027</v>
       </c>
       <c r="F12">
-        <v>18.55226004339167</v>
+        <v>20.14575961270876</v>
       </c>
       <c r="G12">
-        <v>23.0506144684121</v>
+        <v>21.84096591711011</v>
       </c>
       <c r="H12">
-        <v>7.652689585876338</v>
+        <v>12.18320143771973</v>
       </c>
       <c r="I12">
-        <v>10.42383898044127</v>
+        <v>18.22064174751279</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>17.83924003780712</v>
+        <v>11.98924095354251</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.44553093274762</v>
+        <v>14.22746372668383</v>
       </c>
       <c r="N12">
-        <v>10.90292848948793</v>
+        <v>17.21671621213302</v>
       </c>
       <c r="O12">
-        <v>13.1600088410096</v>
+        <v>17.66195368336478</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9.003346338680576</v>
+        <v>6.738223525624676</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>5.375265886322398</v>
+        <v>4.384375679883409</v>
       </c>
       <c r="E13">
-        <v>17.52148610449741</v>
+        <v>13.87274530514301</v>
       </c>
       <c r="F13">
-        <v>18.5160967972584</v>
+        <v>20.14134190029332</v>
       </c>
       <c r="G13">
-        <v>22.99854133081126</v>
+        <v>21.83262924849463</v>
       </c>
       <c r="H13">
-        <v>7.649784173151318</v>
+        <v>12.18451689266007</v>
       </c>
       <c r="I13">
-        <v>10.43963550354129</v>
+        <v>18.22564935592083</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>17.7992059876689</v>
+        <v>11.97001633833175</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.39225007391089</v>
+        <v>14.21136723030924</v>
       </c>
       <c r="N13">
-        <v>10.91170614752513</v>
+        <v>17.21932565679254</v>
       </c>
       <c r="O13">
-        <v>13.14416484366289</v>
+        <v>17.66237468752063</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.931217247484456</v>
+        <v>6.713425754706178</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>5.338985200208487</v>
+        <v>4.368988091321977</v>
       </c>
       <c r="E14">
-        <v>17.35024860705533</v>
+        <v>13.8353369765202</v>
       </c>
       <c r="F14">
-        <v>18.39817172007927</v>
+        <v>20.12707433767707</v>
       </c>
       <c r="G14">
-        <v>22.8286915962433</v>
+        <v>21.80562469713985</v>
       </c>
       <c r="H14">
-        <v>7.640480485803111</v>
+        <v>12.18885975884203</v>
       </c>
       <c r="I14">
-        <v>10.49126459401835</v>
+        <v>18.24205374559281</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>17.66804043224119</v>
+        <v>11.90706082522127</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>20.2176909250748</v>
+        <v>14.15880900830249</v>
       </c>
       <c r="N14">
-        <v>10.94040217999665</v>
+        <v>17.22787556169046</v>
       </c>
       <c r="O14">
-        <v>13.09276173641841</v>
+        <v>17.66385711439282</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.886744659926487</v>
+        <v>6.698204933803247</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>5.31663513946265</v>
+        <v>4.359523401911447</v>
       </c>
       <c r="E15">
-        <v>17.244883598607</v>
+        <v>13.81246451046045</v>
       </c>
       <c r="F15">
-        <v>18.32594963941842</v>
+        <v>20.11844252425922</v>
       </c>
       <c r="G15">
-        <v>22.72463462579404</v>
+        <v>21.78922492078095</v>
       </c>
       <c r="H15">
-        <v>7.634912769357376</v>
+        <v>12.191560520357</v>
       </c>
       <c r="I15">
-        <v>10.52297612218711</v>
+        <v>18.25215840906943</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.58723247312852</v>
+        <v>11.868299832869</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>20.11015354667437</v>
+        <v>14.12656765827226</v>
       </c>
       <c r="N15">
-        <v>10.95803327564112</v>
+        <v>17.23314332946067</v>
       </c>
       <c r="O15">
-        <v>13.06148153795539</v>
+        <v>17.66484923472413</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.627420361509323</v>
+        <v>6.610522752088456</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>5.186616593702251</v>
+        <v>4.304690003332726</v>
       </c>
       <c r="E16">
-        <v>16.63370289004945</v>
+        <v>13.68206358260758</v>
       </c>
       <c r="F16">
-        <v>17.91231538535686</v>
+        <v>20.07063420475066</v>
       </c>
       <c r="G16">
-        <v>22.12813657639949</v>
+        <v>21.69743290707055</v>
       </c>
       <c r="H16">
-        <v>7.604985386704423</v>
+        <v>12.20766004781364</v>
       </c>
       <c r="I16">
-        <v>10.70604888047765</v>
+        <v>18.3109313949038</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.11703584028294</v>
+        <v>11.64315987413496</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.48443096804232</v>
+        <v>13.94112526042299</v>
       </c>
       <c r="N16">
-        <v>11.05989772931014</v>
+        <v>17.26380198967747</v>
       </c>
       <c r="O16">
-        <v>12.8853817538181</v>
+        <v>17.67182326969386</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.464342298563295</v>
+        <v>6.556351331532463</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>5.105134109440154</v>
+        <v>4.270529415192512</v>
       </c>
       <c r="E17">
-        <v>16.25211558458706</v>
+        <v>13.60271017992</v>
       </c>
       <c r="F17">
-        <v>17.65887326636452</v>
+        <v>20.04279420830203</v>
       </c>
       <c r="G17">
-        <v>21.76215668283454</v>
+        <v>21.64309844019376</v>
       </c>
       <c r="H17">
-        <v>7.588359061168545</v>
+        <v>12.21809187411242</v>
       </c>
       <c r="I17">
-        <v>10.81957091543619</v>
+        <v>18.34776192541182</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.82224973735205</v>
+        <v>11.50238932588673</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>19.09207388973988</v>
+        <v>13.82681550294742</v>
       </c>
       <c r="N17">
-        <v>11.12312812822955</v>
+        <v>17.28303121497738</v>
       </c>
       <c r="O17">
-        <v>12.78016615088595</v>
+        <v>17.67725102039345</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.369076791530826</v>
+        <v>6.525064311673741</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5.05763976558653</v>
+        <v>4.250692932886755</v>
       </c>
       <c r="E18">
-        <v>16.03995205350298</v>
+        <v>13.5573219826902</v>
       </c>
       <c r="F18">
-        <v>17.51325301454046</v>
+        <v>20.02733240245447</v>
       </c>
       <c r="G18">
-        <v>21.55168927822279</v>
+        <v>21.61258248118488</v>
       </c>
       <c r="H18">
-        <v>7.579419903235713</v>
+        <v>12.22429595550497</v>
       </c>
       <c r="I18">
-        <v>10.88531594713939</v>
+        <v>18.36923129572592</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.6503761628901</v>
+        <v>11.42046175415763</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.86326040321541</v>
+        <v>13.76089091101306</v>
       </c>
       <c r="N18">
-        <v>11.15976904917587</v>
+        <v>17.29424638359055</v>
       </c>
       <c r="O18">
-        <v>12.72068387376409</v>
+        <v>17.68079510496964</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.336569487222265</v>
+        <v>6.514449970365447</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>5.041451634225051</v>
+        <v>4.24394467000702</v>
       </c>
       <c r="E19">
-        <v>15.97500009402181</v>
+        <v>13.54199955067889</v>
       </c>
       <c r="F19">
-        <v>17.46397870139477</v>
+        <v>20.02219229120325</v>
       </c>
       <c r="G19">
-        <v>21.4804398645536</v>
+        <v>21.60237752309707</v>
       </c>
       <c r="H19">
-        <v>7.576499158965842</v>
+        <v>12.22643157359157</v>
       </c>
       <c r="I19">
-        <v>10.90765382835163</v>
+        <v>18.37654952852163</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.5917850779456</v>
+        <v>11.39255912634741</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.78524719841006</v>
+        <v>13.73854198896587</v>
       </c>
       <c r="N19">
-        <v>11.172221894315</v>
+        <v>17.29807029809395</v>
       </c>
       <c r="O19">
-        <v>12.70072192330358</v>
+        <v>17.68206755709991</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.481854089958302</v>
+        <v>6.562131581221633</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>5.113873137695172</v>
+        <v>4.274185431574833</v>
       </c>
       <c r="E20">
-        <v>16.29299104946242</v>
+        <v>13.61113161082307</v>
       </c>
       <c r="F20">
-        <v>17.68583770513038</v>
+        <v>20.04570087915067</v>
       </c>
       <c r="G20">
-        <v>21.80111352853383</v>
+        <v>21.64880648920316</v>
       </c>
       <c r="H20">
-        <v>7.590064098097398</v>
+        <v>12.21696027594813</v>
       </c>
       <c r="I20">
-        <v>10.80743981257787</v>
+        <v>18.34381172447459</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.85387057625858</v>
+        <v>11.5174743154347</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>19.13416557467361</v>
+        <v>13.83900280971499</v>
       </c>
       <c r="N20">
-        <v>11.11636895926564</v>
+        <v>17.28096819237582</v>
       </c>
       <c r="O20">
-        <v>12.79125941362453</v>
+        <v>17.67662952675276</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.952464037090126</v>
+        <v>6.720716077463125</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>5.349668222712951</v>
+        <v>4.373516017802908</v>
       </c>
       <c r="E21">
-        <v>17.40064447957596</v>
+        <v>13.84631621632592</v>
       </c>
       <c r="F21">
-        <v>18.43280718700006</v>
+        <v>20.13124269158894</v>
       </c>
       <c r="G21">
-        <v>22.87858479636278</v>
+        <v>21.81352719919561</v>
       </c>
       <c r="H21">
-        <v>7.643185820228157</v>
+        <v>12.18757568592651</v>
       </c>
       <c r="I21">
-        <v>10.47608172577399</v>
+        <v>18.23722360686234</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.70666392277072</v>
+        <v>11.92559391658606</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.26909120333442</v>
+        <v>14.17425674723366</v>
       </c>
       <c r="N21">
-        <v>10.93196221898502</v>
+        <v>17.22535785008619</v>
       </c>
       <c r="O21">
-        <v>13.1078172145724</v>
+        <v>17.66340416462732</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.246988496770651</v>
+        <v>6.822981030094064</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>5.498096804810943</v>
+        <v>4.436682848231409</v>
       </c>
       <c r="E22">
-        <v>18.10313794807722</v>
+        <v>14.00191441540121</v>
       </c>
       <c r="F22">
-        <v>18.92156437555672</v>
+        <v>20.19197049497546</v>
       </c>
       <c r="G22">
-        <v>23.58205322441894</v>
+        <v>21.92753103338575</v>
       </c>
       <c r="H22">
-        <v>7.68373492109748</v>
+        <v>12.1701894362718</v>
       </c>
       <c r="I22">
-        <v>10.26343569825461</v>
+        <v>18.17009240851699</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.24320824698128</v>
+        <v>12.18346059293632</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.98326202829483</v>
+        <v>14.39128441446409</v>
       </c>
       <c r="N22">
-        <v>10.81385771808459</v>
+        <v>17.19038822568629</v>
       </c>
       <c r="O22">
-        <v>13.3239133543201</v>
+        <v>17.6585238344537</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.090987519514842</v>
+        <v>6.768537229233639</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>5.419400754264212</v>
+        <v>4.403133265224905</v>
       </c>
       <c r="E23">
-        <v>17.73013487966158</v>
+        <v>13.91871345084906</v>
       </c>
       <c r="F23">
-        <v>18.66068810407101</v>
+        <v>20.15912217780161</v>
       </c>
       <c r="G23">
-        <v>23.2067083544374</v>
+        <v>21.8661143751274</v>
       </c>
       <c r="H23">
-        <v>7.661546392095681</v>
+        <v>12.1793023455124</v>
       </c>
       <c r="I23">
-        <v>10.37657496445112</v>
+        <v>18.20569061600768</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.95875294571446</v>
+        <v>12.04665731156636</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.60459757299205</v>
+        <v>14.27566675384045</v>
       </c>
       <c r="N23">
-        <v>10.87667159354525</v>
+        <v>17.20892662985099</v>
       </c>
       <c r="O23">
-        <v>13.20773718246738</v>
+        <v>17.66078412154782</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.473941711775247</v>
+        <v>6.559518773608561</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>5.109924243400011</v>
+        <v>4.272533159648782</v>
       </c>
       <c r="E24">
-        <v>16.27451925229754</v>
+        <v>13.60732355162727</v>
       </c>
       <c r="F24">
-        <v>17.67364680209966</v>
+        <v>20.04438507851065</v>
       </c>
       <c r="G24">
-        <v>21.78350131534977</v>
+        <v>21.64622363016208</v>
       </c>
       <c r="H24">
-        <v>7.589291324258183</v>
+        <v>12.21747122768063</v>
       </c>
       <c r="I24">
-        <v>10.8129227889677</v>
+        <v>18.34559669126741</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.83958225960927</v>
+        <v>11.51065749258767</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>19.11514602672449</v>
+        <v>13.83349356541993</v>
       </c>
       <c r="N24">
-        <v>11.11942387949063</v>
+        <v>17.28190038634087</v>
       </c>
       <c r="O24">
-        <v>12.78624101113329</v>
+        <v>17.67690918458805</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.752275462262038</v>
+        <v>6.329279448572592</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.752186191474627</v>
+        <v>4.124516637681316</v>
       </c>
       <c r="E25">
-        <v>14.83365149517279</v>
+        <v>13.28135699106523</v>
       </c>
       <c r="F25">
-        <v>16.61544592132586</v>
+        <v>19.94172566418271</v>
       </c>
       <c r="G25">
-        <v>20.25057626664516</v>
+        <v>21.43725967092303</v>
       </c>
       <c r="H25">
-        <v>7.535031908211792</v>
+        <v>12.26643926932523</v>
       </c>
       <c r="I25">
-        <v>11.30086641594548</v>
+        <v>18.50742764926797</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.5438597139652</v>
+        <v>10.89603508756422</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.38832254983487</v>
+        <v>13.35012112415759</v>
       </c>
       <c r="N25">
-        <v>11.39170206981653</v>
+        <v>17.36654500929017</v>
       </c>
       <c r="O25">
-        <v>12.37112486722149</v>
+        <v>17.71043759074614</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_136/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_136/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.156963590373884</v>
+        <v>7.172677418411364</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.009826208508815</v>
+        <v>4.468849611356599</v>
       </c>
       <c r="E2">
-        <v>13.0517797733534</v>
+        <v>13.75290475258768</v>
       </c>
       <c r="F2">
-        <v>19.88463245665361</v>
+        <v>15.84696521811749</v>
       </c>
       <c r="G2">
-        <v>21.30854860154199</v>
+        <v>19.13096675954849</v>
       </c>
       <c r="H2">
-        <v>12.30919095588805</v>
+        <v>7.513885820308898</v>
       </c>
       <c r="I2">
-        <v>18.63605908659317</v>
+        <v>11.67559556589707</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.41413169974733</v>
+        <v>14.51505236827393</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.99157281482328</v>
+        <v>16.01163735303356</v>
       </c>
       <c r="N2">
-        <v>17.43401136142691</v>
+        <v>11.60128672543363</v>
       </c>
       <c r="O2">
-        <v>17.74895436310258</v>
+        <v>12.09917546681285</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.039166275242645</v>
+        <v>6.749922528558441</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.928789575892174</v>
+        <v>4.264852898430715</v>
       </c>
       <c r="E3">
-        <v>12.90363368862676</v>
+        <v>12.99973672026426</v>
       </c>
       <c r="F3">
-        <v>19.85760895936672</v>
+        <v>15.33584519260301</v>
       </c>
       <c r="G3">
-        <v>21.23736206715618</v>
+        <v>18.38239691966244</v>
       </c>
       <c r="H3">
-        <v>12.34233629294067</v>
+        <v>7.510475882018327</v>
       </c>
       <c r="I3">
-        <v>18.72918760439642</v>
+        <v>11.93950356750249</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.07047087758454</v>
+        <v>13.7723561421073</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>12.74849099505098</v>
+        <v>15.01237683574024</v>
       </c>
       <c r="N3">
-        <v>17.48296354965862</v>
+        <v>11.7490878683002</v>
       </c>
       <c r="O3">
-        <v>17.78365092198452</v>
+        <v>11.93556108029109</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5.966593858109411</v>
+        <v>6.475674830342898</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.8774927197596</v>
+        <v>4.133894956754654</v>
       </c>
       <c r="E4">
-        <v>12.81663994264883</v>
+        <v>12.52834715464139</v>
       </c>
       <c r="F4">
-        <v>19.84680445586836</v>
+        <v>15.02791121384049</v>
       </c>
       <c r="G4">
-        <v>21.20165799374684</v>
+        <v>17.92955826037731</v>
       </c>
       <c r="H4">
-        <v>12.36474362255763</v>
+        <v>7.513494536998612</v>
       </c>
       <c r="I4">
-        <v>18.78931955216837</v>
+        <v>12.10655298666423</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.851536957735306</v>
+        <v>13.29449302252141</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.59973984192309</v>
+        <v>14.3660471456993</v>
       </c>
       <c r="N4">
-        <v>17.51462047616478</v>
+        <v>11.84271107048007</v>
       </c>
       <c r="O4">
-        <v>17.80917967898423</v>
+        <v>11.84512875894369</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5.936998827666138</v>
+        <v>6.360250223349833</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.856216597092263</v>
+        <v>4.079131929494541</v>
       </c>
       <c r="E5">
-        <v>12.78223047599266</v>
+        <v>12.33424571221958</v>
       </c>
       <c r="F5">
-        <v>19.84386088018305</v>
+        <v>14.90408463125113</v>
       </c>
       <c r="G5">
-        <v>21.18913253793329</v>
+        <v>17.74701490126901</v>
       </c>
       <c r="H5">
-        <v>12.3743914698523</v>
+        <v>7.515969136642788</v>
       </c>
       <c r="I5">
-        <v>18.81456767891138</v>
+        <v>12.17590064986208</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.760411047132564</v>
+        <v>13.09437945822685</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.53933344100266</v>
+        <v>14.09442276459231</v>
       </c>
       <c r="N5">
-        <v>17.52792425576964</v>
+        <v>11.88158993467741</v>
       </c>
       <c r="O5">
-        <v>17.82064303846904</v>
+        <v>11.81076485775523</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5.932084510643879</v>
+        <v>6.340863462830612</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.852661685809312</v>
+        <v>4.069955443244577</v>
       </c>
       <c r="E6">
-        <v>12.77658090866513</v>
+        <v>12.30190210291811</v>
       </c>
       <c r="F6">
-        <v>19.84346032883706</v>
+        <v>14.88362873021347</v>
       </c>
       <c r="G6">
-        <v>21.18717522549473</v>
+        <v>17.71683262391887</v>
       </c>
       <c r="H6">
-        <v>12.37602468415592</v>
+        <v>7.516453998192627</v>
       </c>
       <c r="I6">
-        <v>18.81880509507711</v>
+        <v>12.18749311528532</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.745167018984068</v>
+        <v>13.06082956526745</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.52931823476352</v>
+        <v>14.04882247415648</v>
       </c>
       <c r="N6">
-        <v>17.53015772677356</v>
+        <v>11.88808975845959</v>
       </c>
       <c r="O6">
-        <v>17.822610482693</v>
+        <v>11.80520788389241</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5.966194761057353</v>
+        <v>6.474132981959116</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.877207269270719</v>
+        <v>4.133162003920181</v>
       </c>
       <c r="E7">
-        <v>12.81617161357677</v>
+        <v>12.52573720510939</v>
       </c>
       <c r="F7">
-        <v>19.84675884484666</v>
+        <v>15.02623429260825</v>
       </c>
       <c r="G7">
-        <v>21.20148086230888</v>
+        <v>17.92708796392844</v>
       </c>
       <c r="H7">
-        <v>12.3648716452206</v>
+        <v>7.513522925976586</v>
       </c>
       <c r="I7">
-        <v>18.78965704279931</v>
+        <v>12.10748305775779</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.850315611872842</v>
+        <v>13.29181583952188</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.59892421358052</v>
+        <v>14.36241727184555</v>
       </c>
       <c r="N7">
-        <v>17.51479826124876</v>
+        <v>11.84323245638168</v>
       </c>
       <c r="O7">
-        <v>17.80932998836585</v>
+        <v>11.8446552919284</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6.116421659657455</v>
+        <v>7.029968925862579</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.98221316277304</v>
+        <v>4.399715767315804</v>
       </c>
       <c r="E8">
-        <v>12.99990206630625</v>
+        <v>13.49519939769555</v>
       </c>
       <c r="F8">
-        <v>19.87411621117602</v>
+        <v>15.66961195011431</v>
       </c>
       <c r="G8">
-        <v>21.28234989248278</v>
+        <v>18.87161807072913</v>
       </c>
       <c r="H8">
-        <v>12.32019257561326</v>
+        <v>7.511624401654379</v>
       </c>
       <c r="I8">
-        <v>18.6675585381348</v>
+        <v>11.7655600391792</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.29733006489887</v>
+        <v>14.26356465806261</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.90770443192352</v>
+        <v>15.67389275879845</v>
       </c>
       <c r="N8">
-        <v>17.45055856268764</v>
+        <v>11.65165484795787</v>
       </c>
       <c r="O8">
-        <v>17.76003961028285</v>
+        <v>12.04066238527378</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.407361835110563</v>
+        <v>8.002870238887388</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.175293786994875</v>
+        <v>4.875837829387168</v>
       </c>
       <c r="E9">
-        <v>13.38966581705638</v>
+        <v>15.31701714374759</v>
       </c>
       <c r="F9">
-        <v>19.97345445377833</v>
+        <v>16.97061813151112</v>
       </c>
       <c r="G9">
-        <v>21.50379677539466</v>
+        <v>20.76607397022753</v>
       </c>
       <c r="H9">
-        <v>12.24890339062063</v>
+        <v>7.550282128263447</v>
       </c>
       <c r="I9">
-        <v>18.45144826498498</v>
+        <v>11.13414121842458</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.10777989615539</v>
+        <v>15.99205907529237</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.5135565955057</v>
+        <v>17.98624626888116</v>
       </c>
       <c r="N9">
-        <v>17.33723626222366</v>
+        <v>11.2985800038186</v>
       </c>
       <c r="O9">
-        <v>17.69699140797045</v>
+        <v>12.50569328777854</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.616685792972475</v>
+        <v>8.645829912406372</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.308562193084458</v>
+        <v>5.195828913204551</v>
       </c>
       <c r="E10">
-        <v>13.69115148915974</v>
+        <v>16.67691203072704</v>
       </c>
       <c r="F10">
-        <v>20.0738853321676</v>
+        <v>17.9412527016787</v>
       </c>
       <c r="G10">
-        <v>21.70373188836988</v>
+        <v>22.16989821818243</v>
       </c>
       <c r="H10">
-        <v>12.20649734960409</v>
+        <v>7.606968051274545</v>
       </c>
       <c r="I10">
-        <v>18.3067674118731</v>
+        <v>10.69315590000695</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.65909153874004</v>
+        <v>17.15035794513006</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.95414308673544</v>
+        <v>19.52877739733268</v>
       </c>
       <c r="N10">
-        <v>17.26162878879986</v>
+        <v>11.05271957682231</v>
       </c>
       <c r="O10">
-        <v>17.67126115027506</v>
+        <v>12.89752782943908</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.710516914360356</v>
+        <v>8.922730016457017</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.367180480299936</v>
+        <v>5.334718716064805</v>
       </c>
       <c r="E11">
-        <v>13.83096058294531</v>
+        <v>17.33012794537471</v>
       </c>
       <c r="F11">
-        <v>20.12541728742267</v>
+        <v>18.38435996347687</v>
       </c>
       <c r="G11">
-        <v>21.80248015814496</v>
+        <v>22.80879376984283</v>
       </c>
       <c r="H11">
-        <v>12.18937381731668</v>
+        <v>7.639408018958098</v>
       </c>
       <c r="I11">
-        <v>18.24398271421697</v>
+        <v>10.49732362733692</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.89966030959876</v>
+        <v>17.65261506487366</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.15264627319414</v>
+        <v>20.19716299489064</v>
       </c>
       <c r="N11">
-        <v>17.2288810984485</v>
+        <v>10.94377058467404</v>
       </c>
       <c r="O11">
-        <v>17.66404185059977</v>
+        <v>13.08676780314919</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.745814572976845</v>
+        <v>9.025347304595618</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.389078260163137</v>
+        <v>5.386339983333421</v>
       </c>
       <c r="E12">
-        <v>13.88423202791027</v>
+        <v>17.57380359574542</v>
       </c>
       <c r="F12">
-        <v>20.14575961270876</v>
+        <v>18.55226004339156</v>
       </c>
       <c r="G12">
-        <v>21.84096591711011</v>
+        <v>23.05061446841202</v>
       </c>
       <c r="H12">
-        <v>12.18320143771973</v>
+        <v>7.652689585876205</v>
       </c>
       <c r="I12">
-        <v>18.22064174751279</v>
+        <v>10.42383898044117</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.98924095354251</v>
+        <v>17.83924003780723</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.22746372668383</v>
+        <v>20.44553093274764</v>
       </c>
       <c r="N12">
-        <v>17.21671621213302</v>
+        <v>10.90292848948786</v>
       </c>
       <c r="O12">
-        <v>17.66195368336478</v>
+        <v>13.16000884100949</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.738223525624676</v>
+        <v>9.003346338680625</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.384375679883409</v>
+        <v>5.375265886322454</v>
       </c>
       <c r="E13">
-        <v>13.87274530514301</v>
+        <v>17.5214861044974</v>
       </c>
       <c r="F13">
-        <v>20.14134190029332</v>
+        <v>18.51609679725832</v>
       </c>
       <c r="G13">
-        <v>21.83262924849463</v>
+        <v>22.99854133081125</v>
       </c>
       <c r="H13">
-        <v>12.18451689266007</v>
+        <v>7.649784173151243</v>
       </c>
       <c r="I13">
-        <v>18.22564935592083</v>
+        <v>10.4396355035412</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.97001633833175</v>
+        <v>17.79920598766895</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.21136723030924</v>
+        <v>20.39225007391092</v>
       </c>
       <c r="N13">
-        <v>17.21932565679254</v>
+        <v>10.9117061475251</v>
       </c>
       <c r="O13">
-        <v>17.66237468752063</v>
+        <v>13.14416484366282</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.713425754706178</v>
+        <v>8.931217247484481</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.368988091321977</v>
+        <v>5.338985200208487</v>
       </c>
       <c r="E14">
-        <v>13.8353369765202</v>
+        <v>17.35024860705532</v>
       </c>
       <c r="F14">
-        <v>20.12707433767707</v>
+        <v>18.39817172007923</v>
       </c>
       <c r="G14">
-        <v>21.80562469713985</v>
+        <v>22.82869159624329</v>
       </c>
       <c r="H14">
-        <v>12.18885975884203</v>
+        <v>7.640480485803105</v>
       </c>
       <c r="I14">
-        <v>18.24205374559281</v>
+        <v>10.49126459401828</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.90706082522127</v>
+        <v>17.66804043224124</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.15880900830249</v>
+        <v>20.21769092507481</v>
       </c>
       <c r="N14">
-        <v>17.22787556169046</v>
+        <v>10.94040217999662</v>
       </c>
       <c r="O14">
-        <v>17.66385711439282</v>
+        <v>13.09276173641837</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.698204933803247</v>
+        <v>8.886744659926512</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.359523401911447</v>
+        <v>5.316635139462818</v>
       </c>
       <c r="E15">
-        <v>13.81246451046045</v>
+        <v>17.24488359860702</v>
       </c>
       <c r="F15">
-        <v>20.11844252425922</v>
+        <v>18.3259496394184</v>
       </c>
       <c r="G15">
-        <v>21.78922492078095</v>
+        <v>22.72463462579408</v>
       </c>
       <c r="H15">
-        <v>12.191560520357</v>
+        <v>7.634912769357283</v>
       </c>
       <c r="I15">
-        <v>18.25215840906943</v>
+        <v>10.52297612218711</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.868299832869</v>
+        <v>17.58723247312856</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.12656765827226</v>
+        <v>20.11015354667438</v>
       </c>
       <c r="N15">
-        <v>17.23314332946067</v>
+        <v>10.95803327564115</v>
       </c>
       <c r="O15">
-        <v>17.66484923472413</v>
+        <v>13.06148153795539</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.610522752088456</v>
+        <v>8.627420361509341</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.304690003332726</v>
+        <v>5.186616593702373</v>
       </c>
       <c r="E16">
-        <v>13.68206358260758</v>
+        <v>16.63370289004948</v>
       </c>
       <c r="F16">
-        <v>20.07063420475066</v>
+        <v>17.91231538535679</v>
       </c>
       <c r="G16">
-        <v>21.69743290707055</v>
+        <v>22.12813657639946</v>
       </c>
       <c r="H16">
-        <v>12.20766004781364</v>
+        <v>7.604985386704423</v>
       </c>
       <c r="I16">
-        <v>18.3109313949038</v>
+        <v>10.70604888047765</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.64315987413496</v>
+        <v>17.11703584028294</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.94112526042299</v>
+        <v>19.48443096804234</v>
       </c>
       <c r="N16">
-        <v>17.26380198967747</v>
+        <v>11.05989772931014</v>
       </c>
       <c r="O16">
-        <v>17.67182326969386</v>
+        <v>12.88538175381808</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.556351331532463</v>
+        <v>8.46434229856332</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.270529415192512</v>
+        <v>5.1051341094402</v>
       </c>
       <c r="E17">
-        <v>13.60271017992</v>
+        <v>16.2521155845871</v>
       </c>
       <c r="F17">
-        <v>20.04279420830203</v>
+        <v>17.65887326636443</v>
       </c>
       <c r="G17">
-        <v>21.64309844019376</v>
+        <v>21.76215668283449</v>
       </c>
       <c r="H17">
-        <v>12.21809187411242</v>
+        <v>7.588359061168464</v>
       </c>
       <c r="I17">
-        <v>18.34776192541182</v>
+        <v>10.81957091543602</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.50238932588673</v>
+        <v>16.82224973735212</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.82681550294742</v>
+        <v>19.09207388973996</v>
       </c>
       <c r="N17">
-        <v>17.28303121497738</v>
+        <v>11.12312812822948</v>
       </c>
       <c r="O17">
-        <v>17.67725102039345</v>
+        <v>12.78016615088586</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6.525064311673741</v>
+        <v>8.369076791530826</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.250692932886755</v>
+        <v>5.057639765586623</v>
       </c>
       <c r="E18">
-        <v>13.5573219826902</v>
+        <v>16.03995205350298</v>
       </c>
       <c r="F18">
-        <v>20.02733240245447</v>
+        <v>17.51325301454049</v>
       </c>
       <c r="G18">
-        <v>21.61258248118488</v>
+        <v>21.55168927822283</v>
       </c>
       <c r="H18">
-        <v>12.22429595550497</v>
+        <v>7.579419903235713</v>
       </c>
       <c r="I18">
-        <v>18.36923129572592</v>
+        <v>10.88531594713949</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.42046175415763</v>
+        <v>16.65037616289005</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.76089091101306</v>
+        <v>18.86326040321537</v>
       </c>
       <c r="N18">
-        <v>17.29424638359055</v>
+        <v>11.15976904917594</v>
       </c>
       <c r="O18">
-        <v>17.68079510496964</v>
+        <v>12.72068387376415</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.514449970365447</v>
+        <v>8.336569487222242</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.24394467000702</v>
+        <v>5.041451634224915</v>
       </c>
       <c r="E19">
-        <v>13.54199955067889</v>
+        <v>15.97500009402183</v>
       </c>
       <c r="F19">
-        <v>20.02219229120325</v>
+        <v>17.46397870139473</v>
       </c>
       <c r="G19">
-        <v>21.60237752309707</v>
+        <v>21.4804398645535</v>
       </c>
       <c r="H19">
-        <v>12.22643157359157</v>
+        <v>7.576499158965758</v>
       </c>
       <c r="I19">
-        <v>18.37654952852163</v>
+        <v>10.90765382835144</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.39255912634741</v>
+        <v>16.59178507794563</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.73854198896587</v>
+        <v>18.78524719841009</v>
       </c>
       <c r="N19">
-        <v>17.29807029809395</v>
+        <v>11.17222189431481</v>
       </c>
       <c r="O19">
-        <v>17.68206755709991</v>
+        <v>12.70072192330346</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.562131581221633</v>
+        <v>8.481854089958267</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.274185431574833</v>
+        <v>5.113873137695164</v>
       </c>
       <c r="E20">
-        <v>13.61113161082307</v>
+        <v>16.2929910494624</v>
       </c>
       <c r="F20">
-        <v>20.04570087915067</v>
+        <v>17.68583770513031</v>
       </c>
       <c r="G20">
-        <v>21.64880648920316</v>
+        <v>21.80111352853377</v>
       </c>
       <c r="H20">
-        <v>12.21696027594813</v>
+        <v>7.590064098097344</v>
       </c>
       <c r="I20">
-        <v>18.34381172447459</v>
+        <v>10.80743981257791</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.5174743154347</v>
+        <v>16.85387057625866</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.83900280971499</v>
+        <v>19.13416557467364</v>
       </c>
       <c r="N20">
-        <v>17.28096819237582</v>
+        <v>11.11636895926564</v>
       </c>
       <c r="O20">
-        <v>17.67662952675276</v>
+        <v>12.79125941362446</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.720716077463125</v>
+        <v>8.952464037090166</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.373516017802908</v>
+        <v>5.34966822271292</v>
       </c>
       <c r="E21">
-        <v>13.84631621632592</v>
+        <v>17.40064447957592</v>
       </c>
       <c r="F21">
-        <v>20.13124269158894</v>
+        <v>18.43280718700001</v>
       </c>
       <c r="G21">
-        <v>21.81352719919561</v>
+        <v>22.87858479636276</v>
       </c>
       <c r="H21">
-        <v>12.18757568592651</v>
+        <v>7.643185820228113</v>
       </c>
       <c r="I21">
-        <v>18.23722360686234</v>
+        <v>10.47608172577389</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.92559391658606</v>
+        <v>17.70666392277078</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.17425674723366</v>
+        <v>20.26909120333442</v>
       </c>
       <c r="N21">
-        <v>17.22535785008619</v>
+        <v>10.93196221898499</v>
       </c>
       <c r="O21">
-        <v>17.66340416462732</v>
+        <v>13.10781721457235</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.822981030094064</v>
+        <v>9.24698849677066</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.436682848231409</v>
+        <v>5.498096804810922</v>
       </c>
       <c r="E22">
-        <v>14.00191441540121</v>
+        <v>18.10313794807718</v>
       </c>
       <c r="F22">
-        <v>20.19197049497546</v>
+        <v>18.9215643755567</v>
       </c>
       <c r="G22">
-        <v>21.92753103338575</v>
+        <v>23.58205322441897</v>
       </c>
       <c r="H22">
-        <v>12.1701894362718</v>
+        <v>7.683734921097461</v>
       </c>
       <c r="I22">
-        <v>18.17009240851699</v>
+        <v>10.26343569825471</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.18346059293632</v>
+        <v>18.24320824698132</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.39128441446409</v>
+        <v>20.98326202829485</v>
       </c>
       <c r="N22">
-        <v>17.19038822568629</v>
+        <v>10.81385771808466</v>
       </c>
       <c r="O22">
-        <v>17.6585238344537</v>
+        <v>13.32391335432009</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.768537229233639</v>
+        <v>9.090987519514847</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.403133265224905</v>
+        <v>5.419400754264203</v>
       </c>
       <c r="E23">
-        <v>13.91871345084906</v>
+        <v>17.73013487966159</v>
       </c>
       <c r="F23">
-        <v>20.15912217780161</v>
+        <v>18.66068810407099</v>
       </c>
       <c r="G23">
-        <v>21.8661143751274</v>
+        <v>23.20670835443739</v>
       </c>
       <c r="H23">
-        <v>12.1793023455124</v>
+        <v>7.661546392095597</v>
       </c>
       <c r="I23">
-        <v>18.20569061600768</v>
+        <v>10.37657496445102</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.04665731156636</v>
+        <v>17.95875294571449</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.27566675384045</v>
+        <v>20.60459757299205</v>
       </c>
       <c r="N23">
-        <v>17.20892662985099</v>
+        <v>10.87667159354518</v>
       </c>
       <c r="O23">
-        <v>17.66078412154782</v>
+        <v>13.20773718246731</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.559518773608561</v>
+        <v>8.473941711775243</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.272533159648782</v>
+        <v>5.109924243400084</v>
       </c>
       <c r="E24">
-        <v>13.60732355162727</v>
+        <v>16.27451925229756</v>
       </c>
       <c r="F24">
-        <v>20.04438507851065</v>
+        <v>17.67364680209964</v>
       </c>
       <c r="G24">
-        <v>21.64622363016208</v>
+        <v>21.78350131534975</v>
       </c>
       <c r="H24">
-        <v>12.21747122768063</v>
+        <v>7.589291324258135</v>
       </c>
       <c r="I24">
-        <v>18.34559669126741</v>
+        <v>10.81292278896767</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.51065749258767</v>
+        <v>16.83958225960928</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.83349356541993</v>
+        <v>19.11514602672449</v>
       </c>
       <c r="N24">
-        <v>17.28190038634087</v>
+        <v>11.1194238794906</v>
       </c>
       <c r="O24">
-        <v>17.67690918458805</v>
+        <v>12.78624101113324</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.329279448572592</v>
+        <v>7.752275462262036</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.124516637681316</v>
+        <v>4.752186191474614</v>
       </c>
       <c r="E25">
-        <v>13.28135699106523</v>
+        <v>14.8336514951728</v>
       </c>
       <c r="F25">
-        <v>19.94172566418271</v>
+        <v>16.61544592132573</v>
       </c>
       <c r="G25">
-        <v>21.43725967092303</v>
+        <v>20.2505762666449</v>
       </c>
       <c r="H25">
-        <v>12.26643926932523</v>
+        <v>7.535031908211753</v>
       </c>
       <c r="I25">
-        <v>18.50742764926797</v>
+        <v>11.30086641594535</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.89603508756422</v>
+        <v>15.54385971396533</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.35012112415759</v>
+        <v>17.38832254983494</v>
       </c>
       <c r="N25">
-        <v>17.36654500929017</v>
+        <v>11.39170206981643</v>
       </c>
       <c r="O25">
-        <v>17.71043759074614</v>
+        <v>12.37112486722131</v>
       </c>
     </row>
   </sheetData>
